--- a/Excel/Excel Test.xlsx
+++ b/Excel/Excel Test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nigel\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nigel\Documents\Snirt\Test\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,13 +25,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <color theme="1"/>
+      <name val="Aharoni"/>
     </font>
   </fonts>
   <fills count="2">
@@ -54,8 +59,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -336,12 +342,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="90.75" x14ac:dyDescent="1.25">
+      <c r="A1" s="1">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/Excel Test.xlsx
+++ b/Excel/Excel Test.xlsx
@@ -345,24 +345,22 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" ht="90.75" x14ac:dyDescent="1.25">
       <c r="A1" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
-      <c r="D1" s="1">
-        <v>2</v>
-      </c>
+      <c r="D1" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/Excel Test.xlsx
+++ b/Excel/Excel Test.xlsx
@@ -345,21 +345,19 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" ht="90.75" x14ac:dyDescent="1.25">
       <c r="A1" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
-      <c r="C1" s="1">
-        <v>3</v>
-      </c>
+      <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
   </sheetData>

--- a/Excel/Excel Test.xlsx
+++ b/Excel/Excel Test.xlsx
@@ -345,19 +345,21 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" ht="90.75" x14ac:dyDescent="1.25">
       <c r="A1" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="1">
+        <v>3</v>
+      </c>
       <c r="D1" s="1"/>
     </row>
   </sheetData>

--- a/Excel/Excel Test.xlsx
+++ b/Excel/Excel Test.xlsx
@@ -345,22 +345,24 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" ht="90.75" x14ac:dyDescent="1.25">
       <c r="A1" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/Excel Test.xlsx
+++ b/Excel/Excel Test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nigel\Documents\Snirt\Test\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nigel\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,18 +25,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="72"/>
-      <color theme="1"/>
-      <name val="Aharoni"/>
     </font>
   </fonts>
   <fills count="2">
@@ -59,9 +54,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -342,30 +336,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" ht="90.75" x14ac:dyDescent="1.25">
-      <c r="A1" s="1">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/Excel Test.xlsx
+++ b/Excel/Excel Test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nigel\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nigel\Documents\Snirt\Test\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,13 +25,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <color theme="1"/>
+      <name val="Aharoni"/>
     </font>
   </fonts>
   <fills count="2">
@@ -54,8 +59,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -336,12 +342,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="90.75" x14ac:dyDescent="1.25">
+      <c r="A1" s="1">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/Excel Test.xlsx
+++ b/Excel/Excel Test.xlsx
@@ -21,6 +21,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>ff</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -342,15 +350,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="90.75" x14ac:dyDescent="1.25">
+    <row r="1" spans="1:6" ht="90.75" x14ac:dyDescent="1.25">
       <c r="A1" s="1">
         <v>3</v>
       </c>
@@ -362,6 +370,11 @@
       </c>
       <c r="D1" s="1"/>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/Excel/Excel Test.xlsx
+++ b/Excel/Excel Test.xlsx
@@ -24,9 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>ff</t>
+  </si>
+  <si>
+    <t>ee</t>
   </si>
 </sst>
 </file>
@@ -350,15 +353,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="90.75" x14ac:dyDescent="1.25">
+    <row r="1" spans="1:9" ht="90.75" x14ac:dyDescent="1.25">
       <c r="A1" s="1">
         <v>3</v>
       </c>
@@ -370,9 +373,14 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F2" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Excel Test.xlsx
+++ b/Excel/Excel Test.xlsx
@@ -24,12 +24,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>ff</t>
   </si>
   <si>
     <t>ee</t>
+  </si>
+  <si>
+    <t>dwqdwqdwqdqw</t>
   </si>
 </sst>
 </file>
@@ -353,15 +356,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="90.75" x14ac:dyDescent="1.25">
+    <row r="1" spans="1:13" ht="90.75" x14ac:dyDescent="1.25">
       <c r="A1" s="1">
         <v>3</v>
       </c>
@@ -373,14 +376,17 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I4" t="s">
         <v>1</v>
+      </c>
+      <c r="M4" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Excel Test.xlsx
+++ b/Excel/Excel Test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>ff</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>dwqdwqdwqdqw</t>
+  </si>
+  <si>
+    <t>oioihj</t>
   </si>
 </sst>
 </file>
@@ -356,7 +359,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N11" sqref="N11"/>
@@ -389,6 +392,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L11" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
